--- a/wwwroot/Oferta.xlsx
+++ b/wwwroot/Oferta.xlsx
@@ -14,19 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <x:si>
-    <x:t>Zamówienie powyżej 2000 zł netto -10%
-Darmowa dostawa już od 590 zł netto
-(na terenie Polski)</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <x:si>
+    <x:t>Oferta z dnia: 19.12.2022</x:t>
   </x:si>
   <x:si>
     <x:t>Tel. kom.: (+48 61) 694 160 741 
 e-mail: marcin@aluro.pl 
- www.aluro.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WYBRANY ASORTYMENT</x:t>
+ &lt;span style='font-size: 16'&gt;www.aluro.pl&lt;/span&gt;</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Zamawiający: </x:t>
@@ -41,9 +36,6 @@
     <x:t>NAZWA TOWARU</x:t>
   </x:si>
   <x:si>
-    <x:t>STARA CENA Brutto</x:t>
-  </x:si>
-  <x:si>
     <x:t>NOWA CENA Brutto</x:t>
   </x:si>
   <x:si>
@@ -54,6 +46,22 @@
   </x:si>
   <x:si>
     <x:t>WARTOŚĆ POZYCJI BRUTTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A01349</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Bombka szklana PANDIRA cristal-white_Aluro 
+Szerokość: 10,00 cm 
+Głębokość: 10,00 cm 
+Wysokość: 10,00 cm 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,98 zł</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4/48 szt.</x:t>
   </x:si>
   <x:si>
     <x:t>A00186</x:t>
@@ -86,58 +94,6 @@
   </x:si>
   <x:si>
     <x:t>1/10 szt.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A01505</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Wieszak loft-vintage FYRKAT_Aluro 
-Szerokość: 20,00 cm 
-Głębokość: 6,00 cm 
-Wysokość: 115,00 cm 
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/6 szt.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A01508</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Roślina sztuczna - palma w doniczce_Aluro 
-Szerokość: 60,00 cm 
-Głębokość: 60,00 cm 
-Wysokość: 105,00 cm 
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137,40 zł</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/4 szt.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A01506</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Roślina sztuczna - liście strelicji_Aluro 
-Szerokość: 60,00 cm 
-Głębokość: 60,00 cm 
-Wysokość: 120,00 cm 
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A01526</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Osłonka, donica-prostokątna DALINDI XL_Aluro 
-Szerokość: 40,00 cm 
-Głębokość: 20,50 cm 
-Wysokość: 35,50 cm 
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170,73 zł</x:t>
   </x:si>
   <x:si>
     <x:t>WARTOŚĆ ZAMÓWIENIA</x:t>
@@ -205,7 +161,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="6">
+  <x:borders count="5">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -291,25 +247,8 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="14">
+  <x:cellStyleXfs count="13">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -343,9 +282,6 @@
     <x:xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -353,7 +289,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="18">
+  <x:cellXfs count="17">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -411,10 +347,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -545,68 +477,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId9" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1619250" cy="1619250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1619250" cy="1619250"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId10" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1619250" cy="1619250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1619250" cy="1619250"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -912,7 +782,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O10"/>
+  <x:dimension ref="A1:O7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
@@ -953,59 +823,74 @@
       <x:c r="O1" s="2" t="s"/>
     </x:row>
     <x:row r="2" spans="1:15">
-      <x:c r="A2" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
+      <x:c r="A2" s="4" t="s"/>
       <x:c r="B2" s="1" t="s"/>
       <x:c r="C2" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s"/>
+      <x:c r="E2" s="2" t="s"/>
+      <x:c r="F2" s="2" t="s"/>
+      <x:c r="G2" s="2" t="s"/>
+      <x:c r="H2" s="2" t="s"/>
+      <x:c r="I2" s="2" t="s"/>
+      <x:c r="J2" s="2" t="s"/>
+      <x:c r="K2" s="2" t="s"/>
+      <x:c r="L2" s="2" t="s"/>
+      <x:c r="M2" s="2" t="s"/>
+      <x:c r="N2" s="2" t="s"/>
+      <x:c r="O2" s="2" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:15" ht="50" customHeight="1">
+      <x:c r="A3" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:15">
-      <x:c r="A3" s="6" t="s">
+      <x:c r="B3" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B3" s="7" t="s">
+      <x:c r="C3" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C3" s="7" t="s">
+      <x:c r="D3" s="7" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D3" s="7" t="s">
+      <x:c r="E3" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E3" s="7" t="s">
+      <x:c r="F3" s="7" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F3" s="7" t="s">
+      <x:c r="G3" s="7" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="G3" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="H3" s="7" t="s">
-        <x:v>11</x:v>
-      </x:c>
+      <x:c r="H3" s="2" t="s"/>
+      <x:c r="I3" s="2" t="s"/>
+      <x:c r="J3" s="2" t="s"/>
+      <x:c r="K3" s="2" t="s"/>
+      <x:c r="L3" s="2" t="s"/>
+      <x:c r="M3" s="2" t="s"/>
+      <x:c r="N3" s="2" t="s"/>
+      <x:c r="O3" s="2" t="s"/>
     </x:row>
     <x:row r="4" spans="1:15" ht="130" customHeight="1">
       <x:c r="A4" s="8" t="s"/>
       <x:c r="B4" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="9" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D4" s="10" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C4" s="9" t="s">
+      <x:c r="E4" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D4" s="9" t="s"/>
-      <x:c r="E4" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F4" s="9" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G4" s="9" t="s"/>
-      <x:c r="H4" s="11">
+      <x:c r="F4" s="9" t="s"/>
+      <x:c r="G4" s="11">
         <x:f>G4*E4</x:f>
       </x:c>
+      <x:c r="H4" s="2" t="s"/>
       <x:c r="I4" s="2" t="s"/>
       <x:c r="J4" s="2" t="s"/>
       <x:c r="K4" s="2" t="s"/>
@@ -1017,22 +902,22 @@
     <x:row r="5" spans="1:15" ht="130" customHeight="1">
       <x:c r="A5" s="8" t="s"/>
       <x:c r="B5" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="9" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="10" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C5" s="9" t="s">
+      <x:c r="E5" s="9" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D5" s="9" t="s"/>
-      <x:c r="E5" s="10" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F5" s="9" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G5" s="9" t="s"/>
-      <x:c r="H5" s="11">
+      <x:c r="F5" s="9" t="s"/>
+      <x:c r="G5" s="11">
         <x:f>G5*E5</x:f>
       </x:c>
+      <x:c r="H5" s="2" t="s"/>
       <x:c r="I5" s="2" t="s"/>
       <x:c r="J5" s="2" t="s"/>
       <x:c r="K5" s="2" t="s"/>
@@ -1042,24 +927,24 @@
       <x:c r="O5" s="2" t="s"/>
     </x:row>
     <x:row r="6" spans="1:15" ht="130" customHeight="1">
-      <x:c r="A6" s="8" t="s"/>
-      <x:c r="B6" s="9" t="s">
+      <x:c r="A6" s="12" t="s"/>
+      <x:c r="B6" s="13" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C6" s="13" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D6" s="14" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C6" s="9" t="s">
+      <x:c r="E6" s="13" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D6" s="9" t="s"/>
-      <x:c r="E6" s="10" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F6" s="9" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G6" s="9" t="s"/>
-      <x:c r="H6" s="11">
+      <x:c r="F6" s="13" t="s"/>
+      <x:c r="G6" s="11">
         <x:f>G6*E6</x:f>
       </x:c>
+      <x:c r="H6" s="2" t="s"/>
       <x:c r="I6" s="2" t="s"/>
       <x:c r="J6" s="2" t="s"/>
       <x:c r="K6" s="2" t="s"/>
@@ -1068,24 +953,18 @@
       <x:c r="N6" s="2" t="s"/>
       <x:c r="O6" s="2" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:15" ht="130" customHeight="1">
-      <x:c r="A7" s="8" t="s"/>
-      <x:c r="B7" s="9" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C7" s="9" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D7" s="9" t="s"/>
-      <x:c r="E7" s="10" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F7" s="9" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G7" s="9" t="s"/>
-      <x:c r="H7" s="11">
-        <x:f>G7*E7</x:f>
+    <x:row r="7" spans="1:15" ht="30" customHeight="1">
+      <x:c r="A7" s="1" t="s"/>
+      <x:c r="B7" s="2" t="s"/>
+      <x:c r="C7" s="2" t="s"/>
+      <x:c r="D7" s="2" t="s"/>
+      <x:c r="E7" s="2" t="s"/>
+      <x:c r="F7" s="2" t="s"/>
+      <x:c r="G7" s="15" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H7" s="16">
+        <x:f>SUM(H4:H6)</x:f>
       </x:c>
       <x:c r="I7" s="2" t="s"/>
       <x:c r="J7" s="2" t="s"/>
@@ -1094,68 +973,6 @@
       <x:c r="M7" s="2" t="s"/>
       <x:c r="N7" s="2" t="s"/>
       <x:c r="O7" s="2" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:15" ht="130" customHeight="1">
-      <x:c r="A8" s="8" t="s"/>
-      <x:c r="B8" s="9" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C8" s="9" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D8" s="9" t="s"/>
-      <x:c r="E8" s="10" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F8" s="9" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G8" s="9" t="s"/>
-      <x:c r="H8" s="11">
-        <x:f>G8*E8</x:f>
-      </x:c>
-      <x:c r="I8" s="2" t="s"/>
-      <x:c r="J8" s="2" t="s"/>
-      <x:c r="K8" s="2" t="s"/>
-      <x:c r="L8" s="2" t="s"/>
-      <x:c r="M8" s="2" t="s"/>
-      <x:c r="N8" s="2" t="s"/>
-      <x:c r="O8" s="2" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:15" ht="130" customHeight="1">
-      <x:c r="A9" s="12" t="s"/>
-      <x:c r="B9" s="13" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C9" s="13" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D9" s="13" t="s"/>
-      <x:c r="E9" s="14" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F9" s="13" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G9" s="9" t="s"/>
-      <x:c r="H9" s="15">
-        <x:f>G9*E9</x:f>
-      </x:c>
-      <x:c r="I9" s="2" t="s"/>
-      <x:c r="J9" s="2" t="s"/>
-      <x:c r="K9" s="2" t="s"/>
-      <x:c r="L9" s="2" t="s"/>
-      <x:c r="M9" s="2" t="s"/>
-      <x:c r="N9" s="2" t="s"/>
-      <x:c r="O9" s="2" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:15">
-      <x:c r="G10" s="16" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H10" s="17">
-        <x:f>SUM(H4:H9)</x:f>
-      </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">

--- a/wwwroot/Oferta.xlsx
+++ b/wwwroot/Oferta.xlsx
@@ -14,14 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <x:si>
     <x:t>Oferta z dnia: 19.12.2022</x:t>
   </x:si>
   <x:si>
     <x:t>Tel. kom.: (+48 61) 694 160 741 
 e-mail: marcin@aluro.pl 
- &lt;span style='font-size: 16'&gt;www.aluro.pl&lt;/span&gt;</x:t>
+ www.aluro.pl</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Zamawiający: </x:t>
@@ -36,7 +36,7 @@
     <x:t>NAZWA TOWARU</x:t>
   </x:si>
   <x:si>
-    <x:t>NOWA CENA Brutto</x:t>
+    <x:t>NOWA HURTOWA Brutto</x:t>
   </x:si>
   <x:si>
     <x:t>PAKOWANIE</x:t>
@@ -48,52 +48,65 @@
     <x:t>WARTOŚĆ POZYCJI BRUTTO</x:t>
   </x:si>
   <x:si>
-    <x:t>A01349</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Bombka szklana PANDIRA cristal-white_Aluro 
+    <x:t>A01618</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Bombka szklana GIO_Aluro 
 Szerokość: 10,00 cm 
 Głębokość: 10,00 cm 
-Wysokość: 10,00 cm 
+Wysokość: 13,00 cm 
 </x:t>
   </x:si>
   <x:si>
-    <x:t>10,98 zł</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4/48 szt.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A00186</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Szklarenka BERTONI Aluro 
-Szerokość: 41,00 cm 
-Głębokość: 33,00 cm 
-Wysokość: 55,00 cm 
+    <x:t>13,74 zł</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/48 szt.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A01567</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Wazon,osłonka ARKET_Aluro 
+Szerokość: 15,00 cm 
+Głębokość: 15,00 cm 
+Wysokość: 27,00 cm 
 </x:t>
   </x:si>
   <x:si>
-    <x:t>235,77 zł</x:t>
+    <x:t>32,11 zł</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/6 szt.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A01611</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Obelisk dekoracyjny LALIS_Aluro 
+Szerokość: 32,00 cm 
+Głębokość: 32,00 cm 
+Wysokość: 83,00 cm 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>479,67 zł</x:t>
   </x:si>
   <x:si>
     <x:t>1/1 szt.</x:t>
   </x:si>
   <x:si>
-    <x:t>A01165a</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Świecznik wiszący FIELD czarny  - L_Aluro 
-Szerokość: 40,00 cm 
-Głębokość: 8,00 cm 
-Wysokość: 40,00 cm 
+    <x:t>A01598</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Osłonka, donica FRISA - M_Aluro 
+Szerokość: 16,00 cm 
+Głębokość: 16,00 cm 
+Wysokość: 26,00 cm 
 </x:t>
   </x:si>
   <x:si>
-    <x:t>47,97 zł</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/10 szt.</x:t>
+    <x:t>39,84 zł</x:t>
   </x:si>
   <x:si>
     <x:t>WARTOŚĆ ZAMÓWIENIA</x:t>
@@ -782,7 +795,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O7"/>
+  <x:dimension ref="A1:O8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
@@ -808,10 +821,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s"/>
-      <x:c r="E1" s="2" t="s"/>
-      <x:c r="F1" s="2" t="s">
+      <x:c r="E1" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="F1" s="2" t="s"/>
       <x:c r="G1" s="2" t="s"/>
       <x:c r="H1" s="2" t="s"/>
       <x:c r="I1" s="2" t="s"/>
@@ -888,7 +901,7 @@
       </x:c>
       <x:c r="F4" s="9" t="s"/>
       <x:c r="G4" s="11">
-        <x:f>G4*E4</x:f>
+        <x:f>D4*F4</x:f>
       </x:c>
       <x:c r="H4" s="2" t="s"/>
       <x:c r="I4" s="2" t="s"/>
@@ -915,7 +928,7 @@
       </x:c>
       <x:c r="F5" s="9" t="s"/>
       <x:c r="G5" s="11">
-        <x:f>G5*E5</x:f>
+        <x:f>D5*F5</x:f>
       </x:c>
       <x:c r="H5" s="2" t="s"/>
       <x:c r="I5" s="2" t="s"/>
@@ -927,22 +940,22 @@
       <x:c r="O5" s="2" t="s"/>
     </x:row>
     <x:row r="6" spans="1:15" ht="130" customHeight="1">
-      <x:c r="A6" s="12" t="s"/>
-      <x:c r="B6" s="13" t="s">
+      <x:c r="A6" s="8" t="s"/>
+      <x:c r="B6" s="9" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C6" s="13" t="s">
+      <x:c r="C6" s="9" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D6" s="14" t="s">
+      <x:c r="D6" s="10" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E6" s="13" t="s">
+      <x:c r="E6" s="9" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="F6" s="13" t="s"/>
+      <x:c r="F6" s="9" t="s"/>
       <x:c r="G6" s="11">
-        <x:f>G6*E6</x:f>
+        <x:f>D6*F6</x:f>
       </x:c>
       <x:c r="H6" s="2" t="s"/>
       <x:c r="I6" s="2" t="s"/>
@@ -953,19 +966,25 @@
       <x:c r="N6" s="2" t="s"/>
       <x:c r="O6" s="2" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:15" ht="30" customHeight="1">
-      <x:c r="A7" s="1" t="s"/>
-      <x:c r="B7" s="2" t="s"/>
-      <x:c r="C7" s="2" t="s"/>
-      <x:c r="D7" s="2" t="s"/>
-      <x:c r="E7" s="2" t="s"/>
-      <x:c r="F7" s="2" t="s"/>
-      <x:c r="G7" s="15" t="s">
+    <x:row r="7" spans="1:15" ht="130" customHeight="1">
+      <x:c r="A7" s="12" t="s"/>
+      <x:c r="B7" s="13" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="H7" s="16">
-        <x:f>SUM(H4:H6)</x:f>
-      </x:c>
+      <x:c r="C7" s="13" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D7" s="14" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E7" s="13" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F7" s="13" t="s"/>
+      <x:c r="G7" s="11">
+        <x:f>D7*F7</x:f>
+      </x:c>
+      <x:c r="H7" s="2" t="s"/>
       <x:c r="I7" s="2" t="s"/>
       <x:c r="J7" s="2" t="s"/>
       <x:c r="K7" s="2" t="s"/>
@@ -974,9 +993,30 @@
       <x:c r="N7" s="2" t="s"/>
       <x:c r="O7" s="2" t="s"/>
     </x:row>
+    <x:row r="8" spans="1:15" ht="30" customHeight="1">
+      <x:c r="A8" s="1" t="s"/>
+      <x:c r="B8" s="2" t="s"/>
+      <x:c r="C8" s="2" t="s"/>
+      <x:c r="D8" s="2" t="s"/>
+      <x:c r="E8" s="2" t="s"/>
+      <x:c r="F8" s="15" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G8" s="16">
+        <x:f>SUM(G4:G7)</x:f>
+      </x:c>
+      <x:c r="H8" s="2" t="s"/>
+      <x:c r="I8" s="2" t="s"/>
+      <x:c r="J8" s="2" t="s"/>
+      <x:c r="K8" s="2" t="s"/>
+      <x:c r="L8" s="2" t="s"/>
+      <x:c r="M8" s="2" t="s"/>
+      <x:c r="N8" s="2" t="s"/>
+      <x:c r="O8" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
-    <x:mergeCell ref="F1:H1"/>
+    <x:mergeCell ref="E1:G1"/>
     <x:mergeCell ref="A2:B2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/wwwroot/Oferta.xlsx
+++ b/wwwroot/Oferta.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <x:si>
-    <x:t>Oferta z dnia: 19.12.2022</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <x:si>
+    <x:t>Oferta z dnia: 03.01.2023</x:t>
   </x:si>
   <x:si>
     <x:t>Tel. kom.: (+48 61) 694 160 741 
@@ -36,7 +36,7 @@
     <x:t>NAZWA TOWARU</x:t>
   </x:si>
   <x:si>
-    <x:t>NOWA HURTOWA Brutto</x:t>
+    <x:t>CENA HURTOWA Brutto</x:t>
   </x:si>
   <x:si>
     <x:t>PAKOWANIE</x:t>
@@ -48,65 +48,52 @@
     <x:t>WARTOŚĆ POZYCJI BRUTTO</x:t>
   </x:si>
   <x:si>
-    <x:t>A01618</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Bombka szklana GIO_Aluro 
-Szerokość: 10,00 cm 
-Głębokość: 10,00 cm 
-Wysokość: 13,00 cm 
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13,74 zł</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6/48 szt.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A01567</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Wazon,osłonka ARKET_Aluro 
+    <x:t>A01606</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Osłonka,donica kwadratowa KOLBI-L_Aluro 
 Szerokość: 15,00 cm 
 Głębokość: 15,00 cm 
-Wysokość: 27,00 cm 
+Wysokość: 12,00 cm 
 </x:t>
   </x:si>
   <x:si>
-    <x:t>32,11 zł</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/6 szt.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A01611</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Obelisk dekoracyjny LALIS_Aluro 
-Szerokość: 32,00 cm 
-Głębokość: 32,00 cm 
-Wysokość: 83,00 cm 
+    <x:t>18,90 zł</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/12 szt.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A01605</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Osłonka,donica kwadratowa KOLBI- M_Aluro 
+Szerokość: 12,00 cm 
+Głębokość: 12,00 cm 
+Wysokość: 11,00 cm 
 </x:t>
   </x:si>
   <x:si>
-    <x:t>479,67 zł</x:t>
+    <x:t>12,80 zł</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/18 szt.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A01503</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Lampion ABBASI exclusive design XL_Aluro 
+Szerokość: 29,00 cm 
+Głębokość: 29,00 cm 
+Wysokość: 82,00 cm 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>496,00 zł</x:t>
   </x:si>
   <x:si>
     <x:t>1/1 szt.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A01598</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Osłonka, donica FRISA - M_Aluro 
-Szerokość: 16,00 cm 
-Głębokość: 16,00 cm 
-Wysokość: 26,00 cm 
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39,84 zł</x:t>
   </x:si>
   <x:si>
     <x:t>WARTOŚĆ ZAMÓWIENIA</x:t>
@@ -415,7 +402,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1619250" cy="1619250"/>
@@ -428,68 +415,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId7" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1619250" cy="1619250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1619250" cy="1619250"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId8" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1619250" cy="1619250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1619250" cy="1619250"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -795,7 +720,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O8"/>
+  <x:dimension ref="A1:O7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
@@ -940,20 +865,20 @@
       <x:c r="O5" s="2" t="s"/>
     </x:row>
     <x:row r="6" spans="1:15" ht="130" customHeight="1">
-      <x:c r="A6" s="8" t="s"/>
-      <x:c r="B6" s="9" t="s">
+      <x:c r="A6" s="12" t="s"/>
+      <x:c r="B6" s="13" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C6" s="9" t="s">
+      <x:c r="C6" s="13" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D6" s="10" t="s">
+      <x:c r="D6" s="14" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E6" s="9" t="s">
+      <x:c r="E6" s="13" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="F6" s="9" t="s"/>
+      <x:c r="F6" s="13" t="s"/>
       <x:c r="G6" s="11">
         <x:f>D6*F6</x:f>
       </x:c>
@@ -966,23 +891,17 @@
       <x:c r="N6" s="2" t="s"/>
       <x:c r="O6" s="2" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:15" ht="130" customHeight="1">
-      <x:c r="A7" s="12" t="s"/>
-      <x:c r="B7" s="13" t="s">
+    <x:row r="7" spans="1:15" ht="30" customHeight="1">
+      <x:c r="A7" s="1" t="s"/>
+      <x:c r="B7" s="2" t="s"/>
+      <x:c r="C7" s="2" t="s"/>
+      <x:c r="D7" s="2" t="s"/>
+      <x:c r="E7" s="2" t="s"/>
+      <x:c r="F7" s="15" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C7" s="13" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D7" s="14" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E7" s="13" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F7" s="13" t="s"/>
-      <x:c r="G7" s="11">
-        <x:f>D7*F7</x:f>
+      <x:c r="G7" s="16">
+        <x:f>SUM(G4:G6)</x:f>
       </x:c>
       <x:c r="H7" s="2" t="s"/>
       <x:c r="I7" s="2" t="s"/>
@@ -992,27 +911,6 @@
       <x:c r="M7" s="2" t="s"/>
       <x:c r="N7" s="2" t="s"/>
       <x:c r="O7" s="2" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:15" ht="30" customHeight="1">
-      <x:c r="A8" s="1" t="s"/>
-      <x:c r="B8" s="2" t="s"/>
-      <x:c r="C8" s="2" t="s"/>
-      <x:c r="D8" s="2" t="s"/>
-      <x:c r="E8" s="2" t="s"/>
-      <x:c r="F8" s="15" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G8" s="16">
-        <x:f>SUM(G4:G7)</x:f>
-      </x:c>
-      <x:c r="H8" s="2" t="s"/>
-      <x:c r="I8" s="2" t="s"/>
-      <x:c r="J8" s="2" t="s"/>
-      <x:c r="K8" s="2" t="s"/>
-      <x:c r="L8" s="2" t="s"/>
-      <x:c r="M8" s="2" t="s"/>
-      <x:c r="N8" s="2" t="s"/>
-      <x:c r="O8" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">

--- a/wwwroot/Oferta.xlsx
+++ b/wwwroot/Oferta.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <x:si>
-    <x:t>Oferta z dnia: 03.01.2023</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>Oferta z dnia: 18.01.2023</x:t>
   </x:si>
   <x:si>
     <x:t>Tel. kom.: (+48 61) 694 160 741 
@@ -48,49 +48,43 @@
     <x:t>WARTOŚĆ POZYCJI BRUTTO</x:t>
   </x:si>
   <x:si>
-    <x:t>A01606</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Osłonka,donica kwadratowa KOLBI-L_Aluro 
-Szerokość: 15,00 cm 
-Głębokość: 15,00 cm 
-Wysokość: 12,00 cm 
+    <x:t>A01508</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Roślina sztuczna - palma w doniczce_Aluro 
+Szerokość: 60,00 cm 
+Głębokość: 60,00 cm 
+Wysokość: 105,00 cm 
 </x:t>
   </x:si>
   <x:si>
-    <x:t>18,90 zł</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/12 szt.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A01605</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Osłonka,donica kwadratowa KOLBI- M_Aluro 
-Szerokość: 12,00 cm 
-Głębokość: 12,00 cm 
-Wysokość: 11,00 cm 
+    <x:t>108,00 zł</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/4 szt.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A01506</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Roślina sztuczna - liście strelicji_Aluro 
+Szerokość: 60,00 cm 
+Głębokość: 60,00 cm 
+Wysokość: 120,00 cm 
 </x:t>
   </x:si>
   <x:si>
-    <x:t>12,80 zł</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/18 szt.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A01503</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Lampion ABBASI exclusive design XL_Aluro 
-Szerokość: 29,00 cm 
-Głębokość: 29,00 cm 
-Wysokość: 82,00 cm 
+    <x:t>A01526</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Osłonka, donica-prostokątna DALINDI XL_Aluro 
+Szerokość: 40,00 cm 
+Głębokość: 20,50 cm 
+Wysokość: 35,50 cm 
 </x:t>
   </x:si>
   <x:si>
-    <x:t>496,00 zł</x:t>
+    <x:t>130,00 zł</x:t>
   </x:si>
   <x:si>
     <x:t>1/1 szt.</x:t>
@@ -105,7 +99,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="0.00 zł"/>
+    <x:numFmt numFmtId="164" formatCode="0.00 zł"/>
   </x:numFmts>
   <x:fonts count="5">
     <x:font>
@@ -273,7 +267,7 @@
     <x:xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -285,7 +279,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -334,7 +328,7 @@
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -354,7 +348,7 @@
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -402,7 +396,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1619250" cy="1619250"/>
@@ -415,6 +409,37 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1619250" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1619250" cy="1619250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -740,44 +765,44 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:15" ht="100" customHeight="1">
-      <x:c r="A1" s="1" t="s"/>
-      <x:c r="B1" s="2" t="s"/>
+      <x:c r="A1" s="1"/>
+      <x:c r="B1" s="2"/>
       <x:c r="C1" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D1" s="2" t="s"/>
+      <x:c r="D1" s="2"/>
       <x:c r="E1" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F1" s="2" t="s"/>
-      <x:c r="G1" s="2" t="s"/>
-      <x:c r="H1" s="2" t="s"/>
-      <x:c r="I1" s="2" t="s"/>
-      <x:c r="J1" s="2" t="s"/>
-      <x:c r="K1" s="2" t="s"/>
-      <x:c r="L1" s="2" t="s"/>
-      <x:c r="M1" s="2" t="s"/>
-      <x:c r="N1" s="2" t="s"/>
-      <x:c r="O1" s="2" t="s"/>
+      <x:c r="F1" s="2"/>
+      <x:c r="G1" s="2"/>
+      <x:c r="H1" s="2"/>
+      <x:c r="I1" s="2"/>
+      <x:c r="J1" s="2"/>
+      <x:c r="K1" s="2"/>
+      <x:c r="L1" s="2"/>
+      <x:c r="M1" s="2"/>
+      <x:c r="N1" s="2"/>
+      <x:c r="O1" s="2"/>
     </x:row>
     <x:row r="2" spans="1:15">
       <x:c r="A2" s="4" t="s"/>
-      <x:c r="B2" s="1" t="s"/>
+      <x:c r="B2" s="1"/>
       <x:c r="C2" s="5" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s"/>
-      <x:c r="E2" s="2" t="s"/>
-      <x:c r="F2" s="2" t="s"/>
-      <x:c r="G2" s="2" t="s"/>
-      <x:c r="H2" s="2" t="s"/>
-      <x:c r="I2" s="2" t="s"/>
-      <x:c r="J2" s="2" t="s"/>
-      <x:c r="K2" s="2" t="s"/>
-      <x:c r="L2" s="2" t="s"/>
-      <x:c r="M2" s="2" t="s"/>
-      <x:c r="N2" s="2" t="s"/>
-      <x:c r="O2" s="2" t="s"/>
+      <x:c r="D2" s="2"/>
+      <x:c r="E2" s="2"/>
+      <x:c r="F2" s="2"/>
+      <x:c r="G2" s="2"/>
+      <x:c r="H2" s="2"/>
+      <x:c r="I2" s="2"/>
+      <x:c r="J2" s="2"/>
+      <x:c r="K2" s="2"/>
+      <x:c r="L2" s="2"/>
+      <x:c r="M2" s="2"/>
+      <x:c r="N2" s="2"/>
+      <x:c r="O2" s="2"/>
     </x:row>
     <x:row r="3" spans="1:15" ht="50" customHeight="1">
       <x:c r="A3" s="6" t="s">
@@ -801,17 +826,17 @@
       <x:c r="G3" s="7" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="H3" s="2" t="s"/>
-      <x:c r="I3" s="2" t="s"/>
-      <x:c r="J3" s="2" t="s"/>
-      <x:c r="K3" s="2" t="s"/>
-      <x:c r="L3" s="2" t="s"/>
-      <x:c r="M3" s="2" t="s"/>
-      <x:c r="N3" s="2" t="s"/>
-      <x:c r="O3" s="2" t="s"/>
+      <x:c r="H3" s="2"/>
+      <x:c r="I3" s="2"/>
+      <x:c r="J3" s="2"/>
+      <x:c r="K3" s="2"/>
+      <x:c r="L3" s="2"/>
+      <x:c r="M3" s="2"/>
+      <x:c r="N3" s="2"/>
+      <x:c r="O3" s="2"/>
     </x:row>
     <x:row r="4" spans="1:15" ht="130" customHeight="1">
-      <x:c r="A4" s="8" t="s"/>
+      <x:c r="A4" s="8"/>
       <x:c r="B4" s="9" t="s">
         <x:v>10</x:v>
       </x:c>
@@ -828,17 +853,17 @@
       <x:c r="G4" s="11">
         <x:f>D4*F4</x:f>
       </x:c>
-      <x:c r="H4" s="2" t="s"/>
-      <x:c r="I4" s="2" t="s"/>
-      <x:c r="J4" s="2" t="s"/>
-      <x:c r="K4" s="2" t="s"/>
-      <x:c r="L4" s="2" t="s"/>
-      <x:c r="M4" s="2" t="s"/>
-      <x:c r="N4" s="2" t="s"/>
-      <x:c r="O4" s="2" t="s"/>
+      <x:c r="H4" s="2"/>
+      <x:c r="I4" s="2"/>
+      <x:c r="J4" s="2"/>
+      <x:c r="K4" s="2"/>
+      <x:c r="L4" s="2"/>
+      <x:c r="M4" s="2"/>
+      <x:c r="N4" s="2"/>
+      <x:c r="O4" s="2"/>
     </x:row>
     <x:row r="5" spans="1:15" ht="130" customHeight="1">
-      <x:c r="A5" s="8" t="s"/>
+      <x:c r="A5" s="8"/>
       <x:c r="B5" s="9" t="s">
         <x:v>14</x:v>
       </x:c>
@@ -846,71 +871,71 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E5" s="9" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F5" s="9" t="s"/>
       <x:c r="G5" s="11">
         <x:f>D5*F5</x:f>
       </x:c>
-      <x:c r="H5" s="2" t="s"/>
-      <x:c r="I5" s="2" t="s"/>
-      <x:c r="J5" s="2" t="s"/>
-      <x:c r="K5" s="2" t="s"/>
-      <x:c r="L5" s="2" t="s"/>
-      <x:c r="M5" s="2" t="s"/>
-      <x:c r="N5" s="2" t="s"/>
-      <x:c r="O5" s="2" t="s"/>
+      <x:c r="H5" s="2"/>
+      <x:c r="I5" s="2"/>
+      <x:c r="J5" s="2"/>
+      <x:c r="K5" s="2"/>
+      <x:c r="L5" s="2"/>
+      <x:c r="M5" s="2"/>
+      <x:c r="N5" s="2"/>
+      <x:c r="O5" s="2"/>
     </x:row>
     <x:row r="6" spans="1:15" ht="130" customHeight="1">
-      <x:c r="A6" s="12" t="s"/>
+      <x:c r="A6" s="12"/>
       <x:c r="B6" s="13" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="13" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D6" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C6" s="13" t="s">
+      <x:c r="E6" s="13" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="D6" s="14" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E6" s="13" t="s">
-        <x:v>21</x:v>
       </x:c>
       <x:c r="F6" s="13" t="s"/>
       <x:c r="G6" s="11">
         <x:f>D6*F6</x:f>
       </x:c>
-      <x:c r="H6" s="2" t="s"/>
-      <x:c r="I6" s="2" t="s"/>
-      <x:c r="J6" s="2" t="s"/>
-      <x:c r="K6" s="2" t="s"/>
-      <x:c r="L6" s="2" t="s"/>
-      <x:c r="M6" s="2" t="s"/>
-      <x:c r="N6" s="2" t="s"/>
-      <x:c r="O6" s="2" t="s"/>
+      <x:c r="H6" s="2"/>
+      <x:c r="I6" s="2"/>
+      <x:c r="J6" s="2"/>
+      <x:c r="K6" s="2"/>
+      <x:c r="L6" s="2"/>
+      <x:c r="M6" s="2"/>
+      <x:c r="N6" s="2"/>
+      <x:c r="O6" s="2"/>
     </x:row>
     <x:row r="7" spans="1:15" ht="30" customHeight="1">
-      <x:c r="A7" s="1" t="s"/>
-      <x:c r="B7" s="2" t="s"/>
-      <x:c r="C7" s="2" t="s"/>
-      <x:c r="D7" s="2" t="s"/>
-      <x:c r="E7" s="2" t="s"/>
+      <x:c r="A7" s="1"/>
+      <x:c r="B7" s="2"/>
+      <x:c r="C7" s="2"/>
+      <x:c r="D7" s="2"/>
+      <x:c r="E7" s="2"/>
       <x:c r="F7" s="15" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G7" s="16">
         <x:f>SUM(G4:G6)</x:f>
       </x:c>
-      <x:c r="H7" s="2" t="s"/>
-      <x:c r="I7" s="2" t="s"/>
-      <x:c r="J7" s="2" t="s"/>
-      <x:c r="K7" s="2" t="s"/>
-      <x:c r="L7" s="2" t="s"/>
-      <x:c r="M7" s="2" t="s"/>
-      <x:c r="N7" s="2" t="s"/>
-      <x:c r="O7" s="2" t="s"/>
+      <x:c r="H7" s="2"/>
+      <x:c r="I7" s="2"/>
+      <x:c r="J7" s="2"/>
+      <x:c r="K7" s="2"/>
+      <x:c r="L7" s="2"/>
+      <x:c r="M7" s="2"/>
+      <x:c r="N7" s="2"/>
+      <x:c r="O7" s="2"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">

--- a/wwwroot/Oferta.xlsx
+++ b/wwwroot/Oferta.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Oferta z dnia: 18.01.2023</x:t>
+    <x:t>Oferta z dnia: 21.01.2023</x:t>
   </x:si>
   <x:si>
     <x:t>Tel. kom.: (+48 61) 694 160 741 
@@ -48,46 +48,149 @@
     <x:t>WARTOŚĆ POZYCJI BRUTTO</x:t>
   </x:si>
   <x:si>
-    <x:t>A01508</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Roślina sztuczna - palma w doniczce_Aluro 
-Szerokość: 60,00 cm 
-Głębokość: 60,00 cm 
-Wysokość: 105,00 cm 
+    <x:t>A01609</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Osłonka, donica owalna KOLBI- XL_Aluro 
+Szerokość: 31,00 cm 
+Głębokość: 15,00 cm 
+Wysokość: 12,00 cm 
 </x:t>
   </x:si>
   <x:si>
-    <x:t>108,00 zł</x:t>
+    <x:t>26,90 zł</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/6 szt.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A01606</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Osłonka,donica kwadratowa KOLBI-L_Aluro 
+Szerokość: 15,00 cm 
+Głębokość: 15,00 cm 
+Wysokość: 12,00 cm 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18,90 zł</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/12 szt.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A01629</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Świecznik stojący KIGURA_Aluro 
+Szerokość: 31,00 cm 
+Głębokość: 8,00 cm 
+Wysokość: 53,00 cm 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119,50 zł</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/6 szt.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A01626</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Świecznik METIS_Aluro 
+Szerokość: 12,00 cm 
+Głębokość: 12,00 cm 
+Wysokość: 29,00 cm 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35,90 zł</x:t>
   </x:si>
   <x:si>
     <x:t>1/4 szt.</x:t>
   </x:si>
   <x:si>
-    <x:t>A01506</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Roślina sztuczna - liście strelicji_Aluro 
-Szerokość: 60,00 cm 
-Głębokość: 60,00 cm 
-Wysokość: 120,00 cm 
+    <x:t>A01607</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Osłonka,donica kwadratowa KOLBI-XL_Aluro 
+Szerokość: 19,00 cm 
+Głębokość: 19,00 cm 
+Wysokość: 15,00 cm 
 </x:t>
   </x:si>
   <x:si>
-    <x:t>A01526</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Osłonka, donica-prostokątna DALINDI XL_Aluro 
-Szerokość: 40,00 cm 
-Głębokość: 20,50 cm 
-Wysokość: 35,50 cm 
+    <x:t>25,60 zł</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A01608</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Osłonka, donica owalna KOLBI-L_Aluro 
+Szerokość: 25,50 cm 
+Głębokość: 12,50 cm 
+Wysokość: 10,00 cm 
 </x:t>
   </x:si>
   <x:si>
-    <x:t>130,00 zł</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/1 szt.</x:t>
+    <x:t>A01625</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Dekoracja stojąca-liście w kole_Aluro 
+Szerokość: 36,00 cm 
+Głębokość: 10,00 cm 
+Wysokość: 41,00 cm 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34,50 zł</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/4 szt.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A01603</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Osłonka,donica FELPA-L_Aluro 
+Szerokość: 15,00 cm 
+Głębokość: 15,00 cm 
+Wysokość: 14,50 cm 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,50 zł</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A01604</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Osłonka,donica FELPA- XL_Aluro 
+Szerokość: 21,00 cm 
+Głębokość: 21,00 cm 
+Wysokość: 18,50 cm 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32,50 zł</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A01605</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Osłonka,donica kwadratowa KOLBI- M_Aluro 
+Szerokość: 12,00 cm 
+Głębokość: 12,00 cm 
+Wysokość: 11,00 cm 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,80 zł</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/18 szt.</x:t>
   </x:si>
   <x:si>
     <x:t>WARTOŚĆ ZAMÓWIENIA</x:t>
@@ -386,68 +489,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="2381250" cy="1162050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1619250" cy="1619250"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1619250" cy="1619250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1619250" cy="1619250"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId8" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1619250" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
       </xdr:spPr>
@@ -745,7 +786,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O7"/>
+  <x:dimension ref="A1:O14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
@@ -871,10 +912,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F5" s="9" t="s"/>
       <x:c r="G5" s="11">
@@ -890,20 +931,20 @@
       <x:c r="O5" s="2"/>
     </x:row>
     <x:row r="6" spans="1:15" ht="130" customHeight="1">
-      <x:c r="A6" s="12"/>
-      <x:c r="B6" s="13" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C6" s="13" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D6" s="14" t="s">
+      <x:c r="A6" s="8"/>
+      <x:c r="B6" s="9" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="E6" s="13" t="s">
+      <x:c r="C6" s="9" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="F6" s="13" t="s"/>
+      <x:c r="D6" s="10" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E6" s="9" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F6" s="9" t="s"/>
       <x:c r="G6" s="11">
         <x:f>D6*F6</x:f>
       </x:c>
@@ -916,17 +957,23 @@
       <x:c r="N6" s="2"/>
       <x:c r="O6" s="2"/>
     </x:row>
-    <x:row r="7" spans="1:15" ht="30" customHeight="1">
-      <x:c r="A7" s="1"/>
-      <x:c r="B7" s="2"/>
-      <x:c r="C7" s="2"/>
-      <x:c r="D7" s="2"/>
-      <x:c r="E7" s="2"/>
-      <x:c r="F7" s="15" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G7" s="16">
-        <x:f>SUM(G4:G6)</x:f>
+    <x:row r="7" spans="1:15" ht="130" customHeight="1">
+      <x:c r="A7" s="8"/>
+      <x:c r="B7" s="9" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C7" s="9" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D7" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E7" s="9" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F7" s="9" t="s"/>
+      <x:c r="G7" s="11">
+        <x:f>D7*F7</x:f>
       </x:c>
       <x:c r="H7" s="2"/>
       <x:c r="I7" s="2"/>
@@ -936,6 +983,189 @@
       <x:c r="M7" s="2"/>
       <x:c r="N7" s="2"/>
       <x:c r="O7" s="2"/>
+    </x:row>
+    <x:row r="8" spans="1:15" ht="130" customHeight="1">
+      <x:c r="A8" s="8"/>
+      <x:c r="B8" s="9" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C8" s="9" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D8" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E8" s="9" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F8" s="9" t="s"/>
+      <x:c r="G8" s="11">
+        <x:f>D8*F8</x:f>
+      </x:c>
+      <x:c r="H8" s="2"/>
+      <x:c r="I8" s="2"/>
+      <x:c r="J8" s="2"/>
+      <x:c r="K8" s="2"/>
+      <x:c r="L8" s="2"/>
+      <x:c r="M8" s="2"/>
+      <x:c r="N8" s="2"/>
+      <x:c r="O8" s="2"/>
+    </x:row>
+    <x:row r="9" spans="1:15" ht="130" customHeight="1">
+      <x:c r="A9" s="8"/>
+      <x:c r="B9" s="9" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C9" s="9" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D9" s="10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E9" s="9" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F9" s="9" t="s"/>
+      <x:c r="G9" s="11">
+        <x:f>D9*F9</x:f>
+      </x:c>
+      <x:c r="H9" s="2"/>
+      <x:c r="I9" s="2"/>
+      <x:c r="J9" s="2"/>
+      <x:c r="K9" s="2"/>
+      <x:c r="L9" s="2"/>
+      <x:c r="M9" s="2"/>
+      <x:c r="N9" s="2"/>
+      <x:c r="O9" s="2"/>
+    </x:row>
+    <x:row r="10" spans="1:15" ht="130" customHeight="1">
+      <x:c r="A10" s="8"/>
+      <x:c r="B10" s="9" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C10" s="9" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D10" s="10" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E10" s="9" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F10" s="9" t="s"/>
+      <x:c r="G10" s="11">
+        <x:f>D10*F10</x:f>
+      </x:c>
+      <x:c r="H10" s="2"/>
+      <x:c r="I10" s="2"/>
+      <x:c r="J10" s="2"/>
+      <x:c r="K10" s="2"/>
+      <x:c r="L10" s="2"/>
+      <x:c r="M10" s="2"/>
+      <x:c r="N10" s="2"/>
+      <x:c r="O10" s="2"/>
+    </x:row>
+    <x:row r="11" spans="1:15" ht="130" customHeight="1">
+      <x:c r="A11" s="8"/>
+      <x:c r="B11" s="9" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C11" s="9" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D11" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E11" s="9" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F11" s="9" t="s"/>
+      <x:c r="G11" s="11">
+        <x:f>D11*F11</x:f>
+      </x:c>
+      <x:c r="H11" s="2"/>
+      <x:c r="I11" s="2"/>
+      <x:c r="J11" s="2"/>
+      <x:c r="K11" s="2"/>
+      <x:c r="L11" s="2"/>
+      <x:c r="M11" s="2"/>
+      <x:c r="N11" s="2"/>
+      <x:c r="O11" s="2"/>
+    </x:row>
+    <x:row r="12" spans="1:15" ht="130" customHeight="1">
+      <x:c r="A12" s="8"/>
+      <x:c r="B12" s="9" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C12" s="9" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D12" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E12" s="9" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F12" s="9" t="s"/>
+      <x:c r="G12" s="11">
+        <x:f>D12*F12</x:f>
+      </x:c>
+      <x:c r="H12" s="2"/>
+      <x:c r="I12" s="2"/>
+      <x:c r="J12" s="2"/>
+      <x:c r="K12" s="2"/>
+      <x:c r="L12" s="2"/>
+      <x:c r="M12" s="2"/>
+      <x:c r="N12" s="2"/>
+      <x:c r="O12" s="2"/>
+    </x:row>
+    <x:row r="13" spans="1:15" ht="130" customHeight="1">
+      <x:c r="A13" s="12"/>
+      <x:c r="B13" s="13" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C13" s="13" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D13" s="14" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E13" s="13" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F13" s="13" t="s"/>
+      <x:c r="G13" s="11">
+        <x:f>D13*F13</x:f>
+      </x:c>
+      <x:c r="H13" s="2"/>
+      <x:c r="I13" s="2"/>
+      <x:c r="J13" s="2"/>
+      <x:c r="K13" s="2"/>
+      <x:c r="L13" s="2"/>
+      <x:c r="M13" s="2"/>
+      <x:c r="N13" s="2"/>
+      <x:c r="O13" s="2"/>
+    </x:row>
+    <x:row r="14" spans="1:15" ht="30" customHeight="1">
+      <x:c r="A14" s="1"/>
+      <x:c r="B14" s="2"/>
+      <x:c r="C14" s="2"/>
+      <x:c r="D14" s="2"/>
+      <x:c r="E14" s="2"/>
+      <x:c r="F14" s="15" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G14" s="16">
+        <x:f>SUM(G4:G13)</x:f>
+      </x:c>
+      <x:c r="H14" s="2"/>
+      <x:c r="I14" s="2"/>
+      <x:c r="J14" s="2"/>
+      <x:c r="K14" s="2"/>
+      <x:c r="L14" s="2"/>
+      <x:c r="M14" s="2"/>
+      <x:c r="N14" s="2"/>
+      <x:c r="O14" s="2"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">

--- a/wwwroot/Oferta.xlsx
+++ b/wwwroot/Oferta.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Oferta z dnia: 26.02.2023</x:t>
+    <x:t>Oferta z dnia: 27.02.2023</x:t>
   </x:si>
   <x:si>
     <x:t>Tel. kom.: (+48 61) 694 160 741 

--- a/wwwroot/Oferta.xlsx
+++ b/wwwroot/Oferta.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Oferta z dnia: 27.02.2023</x:t>
+    <x:t>Oferta z dnia: 28.02.2023</x:t>
   </x:si>
   <x:si>
     <x:t>Tel. kom.: (+48 61) 694 160 741 
@@ -46,6 +46,22 @@
   </x:si>
   <x:si>
     <x:t>WARTOŚĆ POZYCJI BRUTTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A01502</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Lampion ABBASI exclusive design XXL_Aluro 
+Szerokość: 38,00 cm 
+Głębokość: 38,00 cm 
+Wysokość: 115,00 cm 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>850,00 zł</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/1 szt.</x:t>
   </x:si>
   <x:si>
     <x:t>WARTOŚĆ ZAMÓWIENIA</x:t>
@@ -59,7 +75,7 @@
     <x:numFmt numFmtId="0" formatCode=""/>
     <x:numFmt numFmtId="164" formatCode="0.00 zł"/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="5">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -91,6 +107,14 @@
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="14"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -105,7 +129,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="2">
+  <x:borders count="4">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -140,8 +164,42 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -160,6 +218,15 @@
     <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -167,7 +234,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="10">
+  <x:cellXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -197,6 +264,22 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -242,6 +325,37 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="2381250" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1619250" cy="1619250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1619250" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
       </xdr:spPr>
@@ -539,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O4"/>
+  <x:dimension ref="A1:O5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
@@ -629,17 +743,23 @@
       <x:c r="N3" s="2"/>
       <x:c r="O3" s="2"/>
     </x:row>
-    <x:row r="4" spans="1:15" ht="30" customHeight="1">
-      <x:c r="A4" s="1"/>
-      <x:c r="B4" s="2"/>
-      <x:c r="C4" s="2"/>
-      <x:c r="D4" s="2"/>
-      <x:c r="E4" s="2"/>
-      <x:c r="F4" s="8" t="s">
+    <x:row r="4" spans="1:15" ht="130" customHeight="1">
+      <x:c r="A4" s="8"/>
+      <x:c r="B4" s="9" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G4" s="9">
-        <x:f>SUM(G4:G3)</x:f>
+      <x:c r="C4" s="9" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D4" s="10" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E4" s="9" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F4" s="9" t="s"/>
+      <x:c r="G4" s="11">
+        <x:f>D4*F4</x:f>
       </x:c>
       <x:c r="H4" s="2"/>
       <x:c r="I4" s="2"/>
@@ -649,6 +769,27 @@
       <x:c r="M4" s="2"/>
       <x:c r="N4" s="2"/>
       <x:c r="O4" s="2"/>
+    </x:row>
+    <x:row r="5" spans="1:15" ht="30" customHeight="1">
+      <x:c r="A5" s="1"/>
+      <x:c r="B5" s="2"/>
+      <x:c r="C5" s="2"/>
+      <x:c r="D5" s="2"/>
+      <x:c r="E5" s="2"/>
+      <x:c r="F5" s="12" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G5" s="13">
+        <x:f>SUM(G4:G4)</x:f>
+      </x:c>
+      <x:c r="H5" s="2"/>
+      <x:c r="I5" s="2"/>
+      <x:c r="J5" s="2"/>
+      <x:c r="K5" s="2"/>
+      <x:c r="L5" s="2"/>
+      <x:c r="M5" s="2"/>
+      <x:c r="N5" s="2"/>
+      <x:c r="O5" s="2"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">

--- a/wwwroot/Oferta.xlsx
+++ b/wwwroot/Oferta.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Oferta z dnia: 28.02.2023</x:t>
+    <x:t>Oferta z dnia: 15.10.2023</x:t>
   </x:si>
   <x:si>
     <x:t>Tel. kom.: (+48 61) 694 160 741 
@@ -48,20 +48,65 @@
     <x:t>WARTOŚĆ POZYCJI BRUTTO</x:t>
   </x:si>
   <x:si>
-    <x:t>A01502</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Lampion ABBASI exclusive design XXL_Aluro 
-Szerokość: 38,00 cm 
-Głębokość: 38,00 cm 
-Wysokość: 115,00 cm 
+    <x:t>A01655</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Gwiazdka wisząca NATURE_Aluro L 
+Szerokość: 23,00 cm 
+Głębokość: 4,00 cm 
+Wysokość: 23,00 cm 
 </x:t>
   </x:si>
   <x:si>
-    <x:t>850,00 zł</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/1 szt.</x:t>
+    <x:t>11,80 zł</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/6 szt.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A01656</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Gwiazdka wisząca NATURE_Aluro XL 
+Szerokość: 32,00 cm 
+Głębokość: 5,00 cm 
+Wysokość: 32,00 cm 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17,90 zł</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/4 szt.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A01670</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Renifer stojący_Aluro XL 
+Szerokość: 32,00 cm 
+Głębokość: 5,00 cm 
+Wysokość: 29,00 cm 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76,00 zł</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/8 szt.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A01667</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Renifer świecznik_Aluro 
+Szerokość: 22,00 cm 
+Głębokość: 10,00 cm 
+Wysokość: 23,00 cm 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32,90 zł</x:t>
   </x:si>
   <x:si>
     <x:t>WARTOŚĆ ZAMÓWIENIA</x:t>
@@ -129,7 +174,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="4">
+  <x:borders count="5">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -174,7 +219,7 @@
       <x:top style="thin">
         <x:color rgb="FF000000"/>
       </x:top>
-      <x:bottom style="thick">
+      <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -198,8 +243,25 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="11">
+  <x:cellStyleXfs count="13">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -227,6 +289,12 @@
     <x:xf numFmtId="164" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -234,7 +302,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="14">
+  <x:cellXfs count="17">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -280,6 +348,18 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -325,37 +405,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="2381250" cy="1162050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1619250" cy="1619250"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1619250" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
       </xdr:spPr>
@@ -653,7 +702,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O5"/>
+  <x:dimension ref="A1:O8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
@@ -770,17 +819,23 @@
       <x:c r="N4" s="2"/>
       <x:c r="O4" s="2"/>
     </x:row>
-    <x:row r="5" spans="1:15" ht="30" customHeight="1">
-      <x:c r="A5" s="1"/>
-      <x:c r="B5" s="2"/>
-      <x:c r="C5" s="2"/>
-      <x:c r="D5" s="2"/>
-      <x:c r="E5" s="2"/>
-      <x:c r="F5" s="12" t="s">
+    <x:row r="5" spans="1:15" ht="130" customHeight="1">
+      <x:c r="A5" s="8"/>
+      <x:c r="B5" s="9" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="G5" s="13">
-        <x:f>SUM(G4:G4)</x:f>
+      <x:c r="C5" s="9" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="9" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F5" s="9" t="s"/>
+      <x:c r="G5" s="11">
+        <x:f>D5*F5</x:f>
       </x:c>
       <x:c r="H5" s="2"/>
       <x:c r="I5" s="2"/>
@@ -790,6 +845,81 @@
       <x:c r="M5" s="2"/>
       <x:c r="N5" s="2"/>
       <x:c r="O5" s="2"/>
+    </x:row>
+    <x:row r="6" spans="1:15" ht="130" customHeight="1">
+      <x:c r="A6" s="8"/>
+      <x:c r="B6" s="9" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C6" s="9" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D6" s="10" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E6" s="9" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F6" s="9" t="s"/>
+      <x:c r="G6" s="11">
+        <x:f>D6*F6</x:f>
+      </x:c>
+      <x:c r="H6" s="2"/>
+      <x:c r="I6" s="2"/>
+      <x:c r="J6" s="2"/>
+      <x:c r="K6" s="2"/>
+      <x:c r="L6" s="2"/>
+      <x:c r="M6" s="2"/>
+      <x:c r="N6" s="2"/>
+      <x:c r="O6" s="2"/>
+    </x:row>
+    <x:row r="7" spans="1:15" ht="130" customHeight="1">
+      <x:c r="A7" s="12"/>
+      <x:c r="B7" s="13" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C7" s="13" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D7" s="14" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E7" s="13" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F7" s="13" t="s"/>
+      <x:c r="G7" s="11">
+        <x:f>D7*F7</x:f>
+      </x:c>
+      <x:c r="H7" s="2"/>
+      <x:c r="I7" s="2"/>
+      <x:c r="J7" s="2"/>
+      <x:c r="K7" s="2"/>
+      <x:c r="L7" s="2"/>
+      <x:c r="M7" s="2"/>
+      <x:c r="N7" s="2"/>
+      <x:c r="O7" s="2"/>
+    </x:row>
+    <x:row r="8" spans="1:15" ht="30" customHeight="1">
+      <x:c r="A8" s="1"/>
+      <x:c r="B8" s="2"/>
+      <x:c r="C8" s="2"/>
+      <x:c r="D8" s="2"/>
+      <x:c r="E8" s="2"/>
+      <x:c r="F8" s="15" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G8" s="16">
+        <x:f>SUM(G4:G7)</x:f>
+      </x:c>
+      <x:c r="H8" s="2"/>
+      <x:c r="I8" s="2"/>
+      <x:c r="J8" s="2"/>
+      <x:c r="K8" s="2"/>
+      <x:c r="L8" s="2"/>
+      <x:c r="M8" s="2"/>
+      <x:c r="N8" s="2"/>
+      <x:c r="O8" s="2"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
